--- a/outputs/descriptive_stats.xlsx
+++ b/outputs/descriptive_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,279 +1041,310 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MBG.F</t>
+          <t>LIN.F</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>505</v>
       </c>
       <c r="C20" t="n">
-        <v>45.498</v>
+        <v>179.922</v>
       </c>
       <c r="D20" t="n">
-        <v>47.3</v>
+        <v>179.25</v>
       </c>
       <c r="E20" t="n">
-        <v>8.119999999999999</v>
+        <v>21.202</v>
       </c>
       <c r="F20" t="n">
-        <v>41.735</v>
+        <v>166.35</v>
       </c>
       <c r="G20" t="n">
-        <v>50.91</v>
+        <v>196.95</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09</v>
+        <v>134.65</v>
       </c>
       <c r="I20" t="n">
-        <v>59.26</v>
+        <v>224.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MRK.F</t>
+          <t>MBG.F</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>505</v>
       </c>
       <c r="C21" t="n">
-        <v>106.27</v>
+        <v>45.498</v>
       </c>
       <c r="D21" t="n">
-        <v>103.6</v>
+        <v>47.3</v>
       </c>
       <c r="E21" t="n">
-        <v>13.457</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>95.28</v>
+        <v>41.735</v>
       </c>
       <c r="G21" t="n">
-        <v>114.75</v>
+        <v>50.91</v>
       </c>
       <c r="H21" t="n">
-        <v>80.18000000000001</v>
+        <v>22.09</v>
       </c>
       <c r="I21" t="n">
-        <v>139.25</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MTX.F</t>
+          <t>MRK.F</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>505</v>
       </c>
       <c r="C22" t="n">
-        <v>196.45</v>
+        <v>106.27</v>
       </c>
       <c r="D22" t="n">
-        <v>198.8</v>
+        <v>103.6</v>
       </c>
       <c r="E22" t="n">
-        <v>44.165</v>
+        <v>13.457</v>
       </c>
       <c r="F22" t="n">
-        <v>156.65</v>
+        <v>95.28</v>
       </c>
       <c r="G22" t="n">
-        <v>237.2</v>
+        <v>114.75</v>
       </c>
       <c r="H22" t="n">
-        <v>106.3</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>286.4</v>
+        <v>139.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MUV2.F</t>
+          <t>MTX.F</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>505</v>
       </c>
       <c r="C23" t="n">
-        <v>226.046</v>
+        <v>196.45</v>
       </c>
       <c r="D23" t="n">
-        <v>224</v>
+        <v>198.8</v>
       </c>
       <c r="E23" t="n">
-        <v>24.327</v>
+        <v>44.165</v>
       </c>
       <c r="F23" t="n">
-        <v>211</v>
+        <v>156.65</v>
       </c>
       <c r="G23" t="n">
-        <v>241.4</v>
+        <v>237.2</v>
       </c>
       <c r="H23" t="n">
-        <v>146</v>
+        <v>106.3</v>
       </c>
       <c r="I23" t="n">
-        <v>283.1</v>
+        <v>286.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RWE.F</t>
+          <t>MUV2.F</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>505</v>
       </c>
       <c r="C24" t="n">
-        <v>27.536</v>
+        <v>226.046</v>
       </c>
       <c r="D24" t="n">
-        <v>26.96</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
-        <v>4.46</v>
+        <v>24.327</v>
       </c>
       <c r="F24" t="n">
-        <v>23.49</v>
+        <v>211</v>
       </c>
       <c r="G24" t="n">
-        <v>31.99</v>
+        <v>241.4</v>
       </c>
       <c r="H24" t="n">
-        <v>19.305</v>
+        <v>146</v>
       </c>
       <c r="I24" t="n">
-        <v>35.02</v>
+        <v>283.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>SAP.F</t>
+          <t>RWE.F</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>505</v>
       </c>
       <c r="C25" t="n">
-        <v>113.331</v>
+        <v>27.536</v>
       </c>
       <c r="D25" t="n">
-        <v>112.72</v>
+        <v>26.96</v>
       </c>
       <c r="E25" t="n">
-        <v>13.759</v>
+        <v>4.46</v>
       </c>
       <c r="F25" t="n">
-        <v>102.1</v>
+        <v>23.49</v>
       </c>
       <c r="G25" t="n">
-        <v>122.9</v>
+        <v>31.99</v>
       </c>
       <c r="H25" t="n">
-        <v>84.17</v>
+        <v>19.305</v>
       </c>
       <c r="I25" t="n">
-        <v>142.34</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>SIE.F</t>
+          <t>SAP.F</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>505</v>
       </c>
       <c r="C26" t="n">
-        <v>102.802</v>
+        <v>113.331</v>
       </c>
       <c r="D26" t="n">
-        <v>104.16</v>
+        <v>112.72</v>
       </c>
       <c r="E26" t="n">
-        <v>11.498</v>
+        <v>13.759</v>
       </c>
       <c r="F26" t="n">
-        <v>96.43000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="G26" t="n">
-        <v>112.48</v>
+        <v>122.9</v>
       </c>
       <c r="H26" t="n">
-        <v>59.99</v>
+        <v>84.17</v>
       </c>
       <c r="I26" t="n">
-        <v>119.6</v>
+        <v>142.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>VNA.F</t>
+          <t>SIE.F</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>505</v>
       </c>
       <c r="C27" t="n">
-        <v>49.284</v>
+        <v>102.802</v>
       </c>
       <c r="D27" t="n">
-        <v>47.33</v>
+        <v>104.16</v>
       </c>
       <c r="E27" t="n">
-        <v>5.717</v>
+        <v>11.498</v>
       </c>
       <c r="F27" t="n">
-        <v>44.57</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>54.54</v>
+        <v>112.48</v>
       </c>
       <c r="H27" t="n">
-        <v>38.2</v>
+        <v>59.99</v>
       </c>
       <c r="I27" t="n">
-        <v>62.26</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>VNA.F</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>505</v>
+      </c>
+      <c r="C28" t="n">
+        <v>49.284</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.717</v>
+      </c>
+      <c r="F28" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="G28" t="n">
+        <v>54.54</v>
+      </c>
+      <c r="H28" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>62.26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>VOW3.F</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>505</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B29" t="n">
+        <v>505</v>
+      </c>
+      <c r="C29" t="n">
         <v>147.56</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>146.48</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>17.174</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>138.42</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>154.36</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>185.18</v>
       </c>
     </row>

--- a/outputs/descriptive_stats.xlsx
+++ b/outputs/descriptive_stats.xlsx
@@ -793,7 +793,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DHL.DE</t>
+          <t>DHL.F</t>
         </is>
       </c>
       <c r="B12" t="n">

--- a/outputs/descriptive_stats.xlsx
+++ b/outputs/descriptive_stats.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>41.504</v>
+        <v>41.563</v>
       </c>
       <c r="D2" t="n">
-        <v>42.42</v>
+        <v>42.912</v>
       </c>
       <c r="E2" t="n">
-        <v>6.241</v>
+        <v>6.24</v>
       </c>
       <c r="F2" t="n">
-        <v>38.32</v>
+        <v>38.032</v>
       </c>
       <c r="G2" t="n">
-        <v>45.5</v>
+        <v>44.641</v>
       </c>
       <c r="H2" t="n">
-        <v>24.45</v>
+        <v>28.77</v>
       </c>
       <c r="I2" t="n">
-        <v>55.7</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>253.325</v>
+        <v>253.288</v>
       </c>
       <c r="D3" t="n">
-        <v>262.8</v>
+        <v>267.444</v>
       </c>
       <c r="E3" t="n">
-        <v>32.481</v>
+        <v>31.885</v>
       </c>
       <c r="F3" t="n">
-        <v>227.7</v>
+        <v>223.479</v>
       </c>
       <c r="G3" t="n">
-        <v>278.45</v>
+        <v>275.581</v>
       </c>
       <c r="H3" t="n">
-        <v>166.52</v>
+        <v>199.664</v>
       </c>
       <c r="I3" t="n">
-        <v>315.95</v>
+        <v>305.314</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>193.91</v>
+        <v>193.491</v>
       </c>
       <c r="D4" t="n">
-        <v>197.76</v>
+        <v>198.26</v>
       </c>
       <c r="E4" t="n">
-        <v>21.573</v>
+        <v>20.953</v>
       </c>
       <c r="F4" t="n">
-        <v>180.98</v>
+        <v>181.836</v>
       </c>
       <c r="G4" t="n">
-        <v>212.4</v>
+        <v>210.536</v>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>155.973</v>
       </c>
       <c r="I4" t="n">
-        <v>232.05</v>
+        <v>219.846</v>
       </c>
     </row>
     <row r="5">
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>59.034</v>
+        <v>59.12</v>
       </c>
       <c r="D5" t="n">
-        <v>61.12</v>
+        <v>61.517</v>
       </c>
       <c r="E5" t="n">
-        <v>8.109999999999999</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>51.98</v>
+        <v>52.01</v>
       </c>
       <c r="G5" t="n">
-        <v>65.19</v>
+        <v>65.20699999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>38.3</v>
+        <v>44.924</v>
       </c>
       <c r="I5" t="n">
-        <v>74.52</v>
+        <v>71.593</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>61.191</v>
+        <v>61.034</v>
       </c>
       <c r="D6" t="n">
-        <v>61.45</v>
+        <v>61.065</v>
       </c>
       <c r="E6" t="n">
-        <v>8.403</v>
+        <v>8.035</v>
       </c>
       <c r="F6" t="n">
-        <v>55.99</v>
+        <v>56.717</v>
       </c>
       <c r="G6" t="n">
-        <v>67.38</v>
+        <v>67.13500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>40.43</v>
+        <v>44.513</v>
       </c>
       <c r="I6" t="n">
-        <v>78.26000000000001</v>
+        <v>74.51600000000001</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>99.01900000000001</v>
+        <v>98.467</v>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>98.15900000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>7.354</v>
       </c>
       <c r="F7" t="n">
-        <v>93.52</v>
+        <v>92.598</v>
       </c>
       <c r="G7" t="n">
-        <v>105.15</v>
+        <v>104.918</v>
       </c>
       <c r="H7" t="n">
-        <v>81.90000000000001</v>
+        <v>84.699</v>
       </c>
       <c r="I7" t="n">
-        <v>116.15</v>
+        <v>110.965</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>64.679</v>
+        <v>64.53100000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>64.78</v>
+        <v>65.048</v>
       </c>
       <c r="E8" t="n">
-        <v>8.189</v>
+        <v>7.973</v>
       </c>
       <c r="F8" t="n">
-        <v>59.55</v>
+        <v>60.717</v>
       </c>
       <c r="G8" t="n">
-        <v>72.33</v>
+        <v>71.875</v>
       </c>
       <c r="H8" t="n">
-        <v>38.5</v>
+        <v>46.951</v>
       </c>
       <c r="I8" t="n">
-        <v>77.86</v>
+        <v>74.367</v>
       </c>
     </row>
     <row r="9">
@@ -704,28 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>110.338</v>
+        <v>110.898</v>
       </c>
       <c r="D9" t="n">
-        <v>114.94</v>
+        <v>115.265</v>
       </c>
       <c r="E9" t="n">
-        <v>22.096</v>
+        <v>21.962</v>
       </c>
       <c r="F9" t="n">
-        <v>91.84</v>
+        <v>91.554</v>
       </c>
       <c r="G9" t="n">
-        <v>125.88</v>
+        <v>125.407</v>
       </c>
       <c r="H9" t="n">
-        <v>55.01</v>
+        <v>71.367</v>
       </c>
       <c r="I9" t="n">
-        <v>157.12</v>
+        <v>150.105</v>
       </c>
     </row>
     <row r="10">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>135.979</v>
+        <v>135.334</v>
       </c>
       <c r="D10" t="n">
-        <v>137.4</v>
+        <v>136.768</v>
       </c>
       <c r="E10" t="n">
-        <v>15.341</v>
+        <v>14.699</v>
       </c>
       <c r="F10" t="n">
-        <v>125.25</v>
+        <v>124.677</v>
       </c>
       <c r="G10" t="n">
-        <v>148.45</v>
+        <v>146.607</v>
       </c>
       <c r="H10" t="n">
-        <v>99</v>
+        <v>110.906</v>
       </c>
       <c r="I10" t="n">
-        <v>168.9</v>
+        <v>163.844</v>
       </c>
     </row>
     <row r="11">
@@ -766,28 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>7.439</v>
+        <v>7.44</v>
       </c>
       <c r="D11" t="n">
-        <v>7.431</v>
+        <v>7.476</v>
       </c>
       <c r="E11" t="n">
-        <v>0.991</v>
+        <v>0.955</v>
       </c>
       <c r="F11" t="n">
-        <v>6.714</v>
+        <v>6.744</v>
       </c>
       <c r="G11" t="n">
-        <v>8.058</v>
+        <v>7.915</v>
       </c>
       <c r="H11" t="n">
-        <v>4.947</v>
+        <v>5.758</v>
       </c>
       <c r="I11" t="n">
-        <v>10.2</v>
+        <v>9.254</v>
       </c>
     </row>
     <row r="12">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>31.557</v>
+        <v>31.472</v>
       </c>
       <c r="D12" t="n">
-        <v>30.455</v>
+        <v>30.381</v>
       </c>
       <c r="E12" t="n">
-        <v>4.958</v>
+        <v>4.968</v>
       </c>
       <c r="F12" t="n">
-        <v>27.96</v>
+        <v>28.176</v>
       </c>
       <c r="G12" t="n">
-        <v>34.395</v>
+        <v>34.206</v>
       </c>
       <c r="H12" t="n">
-        <v>19.106</v>
+        <v>22.84</v>
       </c>
       <c r="I12" t="n">
-        <v>41.95</v>
+        <v>40.217</v>
       </c>
     </row>
     <row r="13">
@@ -828,28 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>14.695</v>
+        <v>14.684</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>14.957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.89</v>
+        <v>0.851</v>
       </c>
       <c r="F13" t="n">
-        <v>14.575</v>
+        <v>14.658</v>
       </c>
       <c r="G13" t="n">
-        <v>15.178</v>
+        <v>15.105</v>
       </c>
       <c r="H13" t="n">
-        <v>10.726</v>
+        <v>12.425</v>
       </c>
       <c r="I13" t="n">
-        <v>16.6</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="14">
@@ -859,28 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>9.491</v>
+        <v>9.487</v>
       </c>
       <c r="D14" t="n">
-        <v>9.494</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.597</v>
+        <v>0.53</v>
       </c>
       <c r="F14" t="n">
-        <v>9.054</v>
+        <v>9.17</v>
       </c>
       <c r="G14" t="n">
-        <v>9.9</v>
+        <v>9.766</v>
       </c>
       <c r="H14" t="n">
-        <v>7.98</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>11.486</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="15">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>68.414</v>
+        <v>68.239</v>
       </c>
       <c r="D15" t="n">
-        <v>68.84</v>
+        <v>68.51300000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>5.232</v>
+        <v>4.892</v>
       </c>
       <c r="F15" t="n">
-        <v>65.12</v>
+        <v>65.35899999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>72.36</v>
+        <v>72.18300000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>60.225</v>
       </c>
       <c r="I15" t="n">
-        <v>78.84</v>
+        <v>76.473</v>
       </c>
     </row>
     <row r="16">
@@ -921,28 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>43.697</v>
+        <v>43.568</v>
       </c>
       <c r="D16" t="n">
-        <v>44.31</v>
+        <v>44.158</v>
       </c>
       <c r="E16" t="n">
-        <v>5.046</v>
+        <v>5.268</v>
       </c>
       <c r="F16" t="n">
-        <v>39.33</v>
+        <v>39.303</v>
       </c>
       <c r="G16" t="n">
-        <v>48.005</v>
+        <v>48.234</v>
       </c>
       <c r="H16" t="n">
-        <v>26.52</v>
+        <v>32.29</v>
       </c>
       <c r="I16" t="n">
-        <v>52.41</v>
+        <v>51.025</v>
       </c>
     </row>
     <row r="17">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>58.752</v>
+        <v>58.699</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60.427</v>
       </c>
       <c r="E17" t="n">
-        <v>9.295</v>
+        <v>9.487</v>
       </c>
       <c r="F17" t="n">
-        <v>52.5</v>
+        <v>52.352</v>
       </c>
       <c r="G17" t="n">
-        <v>66.08</v>
+        <v>66.233</v>
       </c>
       <c r="H17" t="n">
-        <v>31</v>
+        <v>38.262</v>
       </c>
       <c r="I17" t="n">
-        <v>73.04000000000001</v>
+        <v>70.307</v>
       </c>
     </row>
     <row r="18">
@@ -983,28 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>87.678</v>
+        <v>87.422</v>
       </c>
       <c r="D18" t="n">
-        <v>88.72</v>
+        <v>88.571</v>
       </c>
       <c r="E18" t="n">
-        <v>5.827</v>
+        <v>5.199</v>
       </c>
       <c r="F18" t="n">
-        <v>85.02</v>
+        <v>85.887</v>
       </c>
       <c r="G18" t="n">
-        <v>91.81999999999999</v>
+        <v>90.021</v>
       </c>
       <c r="H18" t="n">
-        <v>64.3</v>
+        <v>72.82899999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>97.5</v>
+        <v>95.092</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>19.925</v>
+        <v>19.921</v>
       </c>
       <c r="D19" t="n">
-        <v>19.534</v>
+        <v>19.328</v>
       </c>
       <c r="E19" t="n">
-        <v>3.959</v>
+        <v>3.948</v>
       </c>
       <c r="F19" t="n">
-        <v>16.992</v>
+        <v>17.34</v>
       </c>
       <c r="G19" t="n">
-        <v>21.795</v>
+        <v>21.356</v>
       </c>
       <c r="H19" t="n">
-        <v>10.42</v>
+        <v>13.489</v>
       </c>
       <c r="I19" t="n">
-        <v>31.75</v>
+        <v>30.153</v>
       </c>
     </row>
     <row r="20">
@@ -1045,28 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>179.922</v>
+        <v>179.335</v>
       </c>
       <c r="D20" t="n">
-        <v>179.25</v>
+        <v>178.222</v>
       </c>
       <c r="E20" t="n">
-        <v>21.202</v>
+        <v>20.961</v>
       </c>
       <c r="F20" t="n">
-        <v>166.35</v>
+        <v>165.643</v>
       </c>
       <c r="G20" t="n">
-        <v>196.95</v>
+        <v>190.311</v>
       </c>
       <c r="H20" t="n">
-        <v>134.65</v>
+        <v>139.271</v>
       </c>
       <c r="I20" t="n">
-        <v>224.1</v>
+        <v>215.997</v>
       </c>
     </row>
     <row r="21">
@@ -1076,28 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>45.498</v>
+        <v>45.359</v>
       </c>
       <c r="D21" t="n">
-        <v>47.3</v>
+        <v>47.463</v>
       </c>
       <c r="E21" t="n">
-        <v>8.119999999999999</v>
+        <v>8.038</v>
       </c>
       <c r="F21" t="n">
-        <v>41.735</v>
+        <v>41.549</v>
       </c>
       <c r="G21" t="n">
-        <v>50.91</v>
+        <v>50.806</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09</v>
+        <v>27.625</v>
       </c>
       <c r="I21" t="n">
-        <v>59.26</v>
+        <v>57.549</v>
       </c>
     </row>
     <row r="22">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>106.27</v>
+        <v>106.051</v>
       </c>
       <c r="D22" t="n">
-        <v>103.6</v>
+        <v>103.518</v>
       </c>
       <c r="E22" t="n">
-        <v>13.457</v>
+        <v>13.344</v>
       </c>
       <c r="F22" t="n">
-        <v>95.28</v>
+        <v>95.111</v>
       </c>
       <c r="G22" t="n">
-        <v>114.75</v>
+        <v>113.596</v>
       </c>
       <c r="H22" t="n">
-        <v>80.18000000000001</v>
+        <v>90.575</v>
       </c>
       <c r="I22" t="n">
-        <v>139.25</v>
+        <v>136.001</v>
       </c>
     </row>
     <row r="23">
@@ -1138,28 +1138,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>196.45</v>
+        <v>196.003</v>
       </c>
       <c r="D23" t="n">
-        <v>198.8</v>
+        <v>197.93</v>
       </c>
       <c r="E23" t="n">
-        <v>44.165</v>
+        <v>43.208</v>
       </c>
       <c r="F23" t="n">
-        <v>156.65</v>
+        <v>153.683</v>
       </c>
       <c r="G23" t="n">
-        <v>237.2</v>
+        <v>237.314</v>
       </c>
       <c r="H23" t="n">
-        <v>106.3</v>
+        <v>119.728</v>
       </c>
       <c r="I23" t="n">
-        <v>286.4</v>
+        <v>274.705</v>
       </c>
     </row>
     <row r="24">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>226.046</v>
+        <v>225.182</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>224.579</v>
       </c>
       <c r="E24" t="n">
-        <v>24.327</v>
+        <v>22.278</v>
       </c>
       <c r="F24" t="n">
-        <v>211</v>
+        <v>211.778</v>
       </c>
       <c r="G24" t="n">
-        <v>241.4</v>
+        <v>237.437</v>
       </c>
       <c r="H24" t="n">
-        <v>146</v>
+        <v>190.142</v>
       </c>
       <c r="I24" t="n">
-        <v>283.1</v>
+        <v>268.698</v>
       </c>
     </row>
     <row r="25">
@@ -1200,28 +1200,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>27.536</v>
+        <v>27.521</v>
       </c>
       <c r="D25" t="n">
-        <v>26.96</v>
+        <v>26.843</v>
       </c>
       <c r="E25" t="n">
-        <v>4.46</v>
+        <v>4.339</v>
       </c>
       <c r="F25" t="n">
-        <v>23.49</v>
+        <v>23.557</v>
       </c>
       <c r="G25" t="n">
-        <v>31.99</v>
+        <v>31.749</v>
       </c>
       <c r="H25" t="n">
-        <v>19.305</v>
+        <v>20.582</v>
       </c>
       <c r="I25" t="n">
-        <v>35.02</v>
+        <v>34.009</v>
       </c>
     </row>
     <row r="26">
@@ -1231,28 +1231,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>113.331</v>
+        <v>112.144</v>
       </c>
       <c r="D26" t="n">
-        <v>112.72</v>
+        <v>110.957</v>
       </c>
       <c r="E26" t="n">
-        <v>13.759</v>
+        <v>13.129</v>
       </c>
       <c r="F26" t="n">
-        <v>102.1</v>
+        <v>101.833</v>
       </c>
       <c r="G26" t="n">
-        <v>122.9</v>
+        <v>120.494</v>
       </c>
       <c r="H26" t="n">
-        <v>84.17</v>
+        <v>89.795</v>
       </c>
       <c r="I26" t="n">
-        <v>142.34</v>
+        <v>138.127</v>
       </c>
     </row>
     <row r="27">
@@ -1262,28 +1262,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>102.802</v>
+        <v>102.776</v>
       </c>
       <c r="D27" t="n">
-        <v>104.16</v>
+        <v>103.496</v>
       </c>
       <c r="E27" t="n">
-        <v>11.498</v>
+        <v>11.252</v>
       </c>
       <c r="F27" t="n">
-        <v>96.43000000000001</v>
+        <v>96.541</v>
       </c>
       <c r="G27" t="n">
-        <v>112.48</v>
+        <v>113.252</v>
       </c>
       <c r="H27" t="n">
-        <v>59.99</v>
+        <v>74.666</v>
       </c>
       <c r="I27" t="n">
-        <v>119.6</v>
+        <v>117.326</v>
       </c>
     </row>
     <row r="28">
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>49.284</v>
+        <v>49.037</v>
       </c>
       <c r="D28" t="n">
-        <v>47.33</v>
+        <v>47.106</v>
       </c>
       <c r="E28" t="n">
-        <v>5.717</v>
+        <v>5.524</v>
       </c>
       <c r="F28" t="n">
-        <v>44.57</v>
+        <v>44.455</v>
       </c>
       <c r="G28" t="n">
-        <v>54.54</v>
+        <v>53.944</v>
       </c>
       <c r="H28" t="n">
-        <v>38.2</v>
+        <v>42.182</v>
       </c>
       <c r="I28" t="n">
-        <v>62.26</v>
+        <v>59.344</v>
       </c>
     </row>
     <row r="29">
@@ -1324,28 +1324,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>147.56</v>
+        <v>147.576</v>
       </c>
       <c r="D29" t="n">
-        <v>146.48</v>
+        <v>145.674</v>
       </c>
       <c r="E29" t="n">
-        <v>17.174</v>
+        <v>17.19</v>
       </c>
       <c r="F29" t="n">
-        <v>138.42</v>
+        <v>139.372</v>
       </c>
       <c r="G29" t="n">
-        <v>154.36</v>
+        <v>154.331</v>
       </c>
       <c r="H29" t="n">
-        <v>86.40000000000001</v>
+        <v>109.987</v>
       </c>
       <c r="I29" t="n">
-        <v>185.18</v>
+        <v>181.145</v>
       </c>
     </row>
   </sheetData>
